--- a/medicine/Enfance/Brock_Cole/Brock_Cole.xlsx
+++ b/medicine/Enfance/Brock_Cole/Brock_Cole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brock Cole (né le 29 mai 1938 à Charlotte) est un auteur et illustrateur américain de littérature d'enfance et de jeunesse.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né dans le Michigan, Brock Cole obtient un doctorat de philosophie à l'université du Minnesota[1]. Il enseigne à l'université du Wisconsin avant de commencer à écrire des livres pour enfants[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né dans le Michigan, Brock Cole obtient un doctorat de philosophie à l'université du Minnesota. Il enseigne à l'université du Wisconsin avant de commencer à écrire des livres pour enfants.
 En tant qu'illustrateur, il a illustré des romans comme L'Indien du placard de Lynne Reid Banks, ou Un chien à New York (Gully's Travels) de Tor Seidler.
 </t>
         </is>
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Albums pour enfants
-The King at the Door (1979)
+          <t>Albums pour enfants</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>The King at the Door (1979)
 No More Baths (1980)
 Nothing but a Pig (1981)
 The Winter Wren (1984)
@@ -556,9 +575,43 @@
 Larky Mavis (2001)
 Fair Monaco (2003)
 Good Enough To Eat (2007)
-The Money We'll Save (2011)
-Livres pour adolescents
-The Goats (1987) ; traduction : Boucs émissaires, L'École des loisirs, 1988.
+The Money We'll Save (2011)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Brock_Cole</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brock_Cole</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Livres pour adolescents</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>The Goats (1987) ; traduction : Boucs émissaires, L'École des loisirs, 1988.
 Celine (1989) ; traduction : Céline, L'École des loisirs, 1990.
 The Facts Speak For Themselves (1997)</t>
         </is>
